--- a/PESBiU2.0/results_graphs/DQN.xlsx
+++ b/PESBiU2.0/results_graphs/DQN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/xkolac15_vutbr_cz/Documents/DOKTORSKE STUDIUM/Dizertace/Srovnani Algoritmu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_source\pesbiu2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D65697-C9C1-48D3-98A3-0A431BA0AB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905CA0E-C807-423D-B09A-95B513BD39FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="7572" windowWidth="23256" windowHeight="12576" xr2:uid="{4CA64E82-46EA-415C-9B82-337EA6F90A7F}"/>
   </bookViews>
@@ -482,10 +482,13 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -543,10 +546,10 @@
         <v>8.9734420000000004</v>
       </c>
       <c r="I2" s="2">
-        <v>80.405322999999996</v>
+        <v>804.05322999999999</v>
       </c>
       <c r="J2" s="2">
-        <v>80.333740000000006</v>
+        <v>803.33740000000012</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -575,10 +578,10 @@
         <v>9.0936889999999995</v>
       </c>
       <c r="I3" s="2">
-        <v>78.695615000000004</v>
+        <v>786.95614999999998</v>
       </c>
       <c r="J3" s="2">
-        <v>78.692177000000001</v>
+        <v>786.92177000000004</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -607,10 +610,10 @@
         <v>8.9133479999999992</v>
       </c>
       <c r="I4" s="2">
-        <v>71.929208000000003</v>
+        <v>719.29208000000006</v>
       </c>
       <c r="J4" s="2">
-        <v>71.927843999999993</v>
+        <v>719.27843999999993</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -639,10 +642,10 @@
         <v>8.6563199999999991</v>
       </c>
       <c r="I5" s="2">
-        <v>74.889156</v>
+        <v>748.89156000000003</v>
       </c>
       <c r="J5" s="2">
-        <v>74.870531</v>
+        <v>748.70531000000005</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -671,10 +674,10 @@
         <v>8.5954259999999998</v>
       </c>
       <c r="I6" s="2">
-        <v>79.974947999999998</v>
+        <v>799.74947999999995</v>
       </c>
       <c r="J6" s="2">
-        <v>79.965416000000005</v>
+        <v>799.65416000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -703,10 +706,10 @@
         <v>8.477347</v>
       </c>
       <c r="I7" s="2">
-        <v>65.740347</v>
+        <v>657.40346999999997</v>
       </c>
       <c r="J7" s="2">
-        <v>65.740347</v>
+        <v>657.40346999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -735,10 +738,10 @@
         <v>7.8370879999999996</v>
       </c>
       <c r="I8" s="2">
-        <v>74.302082999999996</v>
+        <v>743.02082999999993</v>
       </c>
       <c r="J8" s="2">
-        <v>74.246022999999994</v>
+        <v>742.46022999999991</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -767,10 +770,10 @@
         <v>7.7489730000000003</v>
       </c>
       <c r="I9" s="2">
-        <v>118.505927</v>
+        <v>1185.05927</v>
       </c>
       <c r="J9" s="2">
-        <v>118.443258</v>
+        <v>1184.4325799999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -799,10 +802,10 @@
         <v>7.4986550000000003</v>
       </c>
       <c r="I10" s="2">
-        <v>121.23565600000001</v>
+        <v>1212.3565600000002</v>
       </c>
       <c r="J10" s="2">
-        <v>121.216595</v>
+        <v>1212.1659500000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -831,10 +834,10 @@
         <v>7.675052</v>
       </c>
       <c r="I11" s="2">
-        <v>115.695365</v>
+        <v>1156.9536499999999</v>
       </c>
       <c r="J11" s="2">
-        <v>115.662648</v>
+        <v>1156.6264800000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -863,10 +866,10 @@
         <v>7.6618459999999997</v>
       </c>
       <c r="I12" s="2">
-        <v>115.404208</v>
+        <v>1154.0420799999999</v>
       </c>
       <c r="J12" s="2">
-        <v>115.277576</v>
+        <v>1152.77576</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,10 +898,10 @@
         <v>7.4994569999999996</v>
       </c>
       <c r="I13" s="2">
-        <v>101.40723</v>
+        <v>1014.0723</v>
       </c>
       <c r="J13" s="2">
-        <v>101.380256</v>
+        <v>1013.8025600000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -927,10 +930,10 @@
         <v>7.3879760000000001</v>
       </c>
       <c r="I14" s="2">
-        <v>99.212768999999994</v>
+        <v>992.12768999999992</v>
       </c>
       <c r="J14" s="2">
-        <v>99.198483999999993</v>
+        <v>991.98483999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -959,10 +962,10 @@
         <v>7.1525460000000001</v>
       </c>
       <c r="I15" s="2">
-        <v>91.875590000000003</v>
+        <v>918.7559</v>
       </c>
       <c r="J15" s="2">
-        <v>91.772632000000002</v>
+        <v>917.72631999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -991,10 +994,10 @@
         <v>8.0563420000000008</v>
       </c>
       <c r="I16" s="2">
-        <v>138.153479</v>
+        <v>1381.5347900000002</v>
       </c>
       <c r="J16" s="2">
-        <v>138.09472600000001</v>
+        <v>1380.9472600000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,10 +1026,10 @@
         <v>7.4368629999999998</v>
       </c>
       <c r="I17" s="2">
-        <v>124.846417</v>
+        <v>1248.46417</v>
       </c>
       <c r="J17" s="2">
-        <v>124.846417</v>
+        <v>1248.46417</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1055,10 +1058,10 @@
         <v>7.9490220000000003</v>
       </c>
       <c r="I18" s="2">
-        <v>122.887406</v>
+        <v>1228.8740600000001</v>
       </c>
       <c r="J18" s="2">
-        <v>122.788141</v>
+        <v>1227.88141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,10 +1090,10 @@
         <v>7.6060800000000004</v>
       </c>
       <c r="I19" s="2">
-        <v>116.428375</v>
+        <v>1164.2837500000001</v>
       </c>
       <c r="J19" s="2">
-        <v>116.428375</v>
+        <v>1164.2837500000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1119,10 +1122,10 @@
         <v>7.031352</v>
       </c>
       <c r="I20" s="2">
-        <v>114.173384</v>
+        <v>1141.7338399999999</v>
       </c>
       <c r="J20" s="2">
-        <v>114.173384</v>
+        <v>1141.7338399999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1151,10 +1154,10 @@
         <v>7.4574769999999999</v>
       </c>
       <c r="I21" s="2">
-        <v>111.819333</v>
+        <v>1118.1933300000001</v>
       </c>
       <c r="J21" s="2">
-        <v>111.819333</v>
+        <v>1118.1933300000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1183,10 +1186,10 @@
         <v>7.2554990000000004</v>
       </c>
       <c r="I22" s="2">
-        <v>116.01150800000001</v>
+        <v>1160.11508</v>
       </c>
       <c r="J22" s="2">
-        <v>115.96713699999999</v>
+        <v>1159.67137</v>
       </c>
     </row>
   </sheetData>
